--- a/shiyo/タイトル.xlsx
+++ b/shiyo/タイトル.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -151,23 +151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「タイトルロゴ」の背景に演出効果</t>
-    <rPh sb="9" eb="11">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>エンシュツコウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特になし</t>
-    <rPh sb="0" eb="1">
-      <t>トク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その他演出効果</t>
     <rPh sb="2" eb="3">
       <t>タ</t>
@@ -214,16 +197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>上記の背景</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>紙吹雪エフェクト</t>
     <rPh sb="0" eb="3">
       <t>カミフブキ</t>
@@ -237,6 +210,91 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景：ポスターで使用したもの</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unityのコンポーネントであったのでそれ使ってもいい</t>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー入力はアナログスティック、十字キーでの遷移はしなくてよい</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パレードのマップスタートからゴールまでの分を移動する。</t>
+    <rPh sb="20" eb="21">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール到達後は、5秒後にフェードインアウト、スタート位置へ戻ってまた移動する。</t>
+    <rPh sb="3" eb="5">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>αの減算値は「0.05」で様子見します。</t>
+    <rPh sb="2" eb="4">
+      <t>ゲンザン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ヨウスミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紙吹雪は100パーティクルぐらいで様子見します。</t>
+    <rPh sb="0" eb="3">
+      <t>カミフブキ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヨウスミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -269,7 +327,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -357,11 +415,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -399,6 +537,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -408,6 +555,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -691,7 +841,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -733,7 +883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -768,7 +918,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,11 +1127,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG35"/>
+  <dimension ref="B1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1500,7 +1648,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="6"/>
     </row>
-    <row r="17" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1534,7 +1682,7 @@
       <c r="AF17" s="5"/>
       <c r="AG17" s="6"/>
     </row>
-    <row r="18" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1568,7 +1716,7 @@
       <c r="AF18" s="5"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" spans="2:33" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1602,82 +1750,709 @@
       <c r="AF19" s="8"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="21" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="21" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="21"/>
+      <c r="U21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="21"/>
+    </row>
+    <row r="22" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="24"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="24"/>
+    </row>
+    <row r="23" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="24"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="24"/>
+    </row>
+    <row r="24" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="24"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AL24" s="23"/>
+      <c r="AM24" s="24"/>
+    </row>
+    <row r="25" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="V22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="24"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="24"/>
+    </row>
+    <row r="26" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="27"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="24"/>
+    </row>
+    <row r="27" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U27" s="22"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="24"/>
+    </row>
+    <row r="28" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="21"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="24"/>
+    </row>
+    <row r="29" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="24"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="24"/>
+    </row>
+    <row r="30" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="24"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="23"/>
+      <c r="AM30" s="24"/>
+    </row>
+    <row r="31" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="24"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="24"/>
+    </row>
+    <row r="32" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="24"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="23"/>
+      <c r="AM32" s="24"/>
+    </row>
+    <row r="33" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="24"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="24"/>
+    </row>
+    <row r="34" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="27"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="24"/>
+    </row>
+    <row r="35" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U35" s="22"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="24"/>
+    </row>
+    <row r="36" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U36" s="22"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="23"/>
+      <c r="AM36" s="24"/>
+    </row>
+    <row r="37" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U37" s="22"/>
+      <c r="V37" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="24"/>
+    </row>
+    <row r="38" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U38" s="22"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="V29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="22:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="22:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V35" t="s">
-        <v>18</v>
-      </c>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+      <c r="AL38" s="23"/>
+      <c r="AM38" s="24"/>
+    </row>
+    <row r="39" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U39" s="22"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="24"/>
+    </row>
+    <row r="40" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U40" s="22"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+      <c r="AL40" s="23"/>
+      <c r="AM40" s="24"/>
+    </row>
+    <row r="41" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U41" s="25"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="26"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/shiyo/タイトル.xlsx
+++ b/shiyo/タイトル.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -295,6 +295,38 @@
     </rPh>
     <rPh sb="17" eb="20">
       <t>ヨウスミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の遷移移動で、フェードイン・アウト処理を挟む</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒感は2～3秒</t>
+    <rPh sb="0" eb="1">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -510,6 +542,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,15 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1127,7 +1159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AM41"/>
+  <dimension ref="B1:AM42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1212,22 +1244,22 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="12"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="21"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -1248,20 +1280,20 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="15"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="24"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
@@ -1282,20 +1314,20 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="15"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="24"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -1316,20 +1348,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="15"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="24"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
@@ -1350,20 +1382,20 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="18"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="27"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
@@ -1518,26 +1550,26 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="12"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="21"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
@@ -1554,24 +1586,24 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="15"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="24"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -1588,24 +1620,24 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="18"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
@@ -1751,708 +1783,733 @@
       <c r="AG19" s="9"/>
     </row>
     <row r="21" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="21"/>
-      <c r="U21" s="19" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="12"/>
+      <c r="U21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="21"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="12"/>
     </row>
     <row r="22" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="22"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="24"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="23" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="15"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="23"/>
-      <c r="AL22" s="23"/>
-      <c r="AM22" s="24"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="15"/>
     </row>
     <row r="23" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="24"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="15"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="23"/>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="24"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="15"/>
     </row>
     <row r="24" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="24"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="23"/>
-      <c r="AL24" s="23"/>
-      <c r="AM24" s="24"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="15"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="15"/>
     </row>
     <row r="25" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="24"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="23" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="15"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="15"/>
+    </row>
+    <row r="26" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="18"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="15"/>
+    </row>
+    <row r="27" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U27" s="13"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="15"/>
+    </row>
+    <row r="28" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="12"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="24"/>
-    </row>
-    <row r="26" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="27"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23" t="s">
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="15"/>
+    </row>
+    <row r="29" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="15"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="23"/>
-      <c r="AI26" s="23"/>
-      <c r="AJ26" s="23"/>
-      <c r="AK26" s="23"/>
-      <c r="AL26" s="23"/>
-      <c r="AM26" s="24"/>
-    </row>
-    <row r="27" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U27" s="22"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23" t="s">
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="15"/>
+    </row>
+    <row r="30" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="15"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23"/>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="23"/>
-      <c r="AL27" s="23"/>
-      <c r="AM27" s="24"/>
-    </row>
-    <row r="28" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="21"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="23"/>
-      <c r="AM28" s="24"/>
-    </row>
-    <row r="29" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="24"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="23" t="s">
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="15"/>
+    </row>
+    <row r="31" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="15"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="15"/>
+    </row>
+    <row r="32" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="15"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="23"/>
-      <c r="AK29" s="23"/>
-      <c r="AL29" s="23"/>
-      <c r="AM29" s="24"/>
-    </row>
-    <row r="30" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="24"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23" t="s">
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="15"/>
+    </row>
+    <row r="33" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="15"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="23"/>
-      <c r="AE30" s="23"/>
-      <c r="AF30" s="23"/>
-      <c r="AG30" s="23"/>
-      <c r="AH30" s="23"/>
-      <c r="AI30" s="23"/>
-      <c r="AJ30" s="23"/>
-      <c r="AK30" s="23"/>
-      <c r="AL30" s="23"/>
-      <c r="AM30" s="24"/>
-    </row>
-    <row r="31" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="24"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23" t="s">
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="15"/>
+    </row>
+    <row r="34" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="18"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="23"/>
-      <c r="AE31" s="23"/>
-      <c r="AF31" s="23"/>
-      <c r="AG31" s="23"/>
-      <c r="AH31" s="23"/>
-      <c r="AI31" s="23"/>
-      <c r="AJ31" s="23"/>
-      <c r="AK31" s="23"/>
-      <c r="AL31" s="23"/>
-      <c r="AM31" s="24"/>
-    </row>
-    <row r="32" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="24"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="23"/>
-      <c r="AF32" s="23"/>
-      <c r="AG32" s="23"/>
-      <c r="AH32" s="23"/>
-      <c r="AI32" s="23"/>
-      <c r="AJ32" s="23"/>
-      <c r="AK32" s="23"/>
-      <c r="AL32" s="23"/>
-      <c r="AM32" s="24"/>
-    </row>
-    <row r="33" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="24"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="23" t="s">
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="14"/>
+      <c r="AM34" s="15"/>
+    </row>
+    <row r="35" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U35" s="13"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="15"/>
+    </row>
+    <row r="36" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U36" s="13"/>
+      <c r="V36" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
-      <c r="AE33" s="23"/>
-      <c r="AF33" s="23"/>
-      <c r="AG33" s="23"/>
-      <c r="AH33" s="23"/>
-      <c r="AI33" s="23"/>
-      <c r="AJ33" s="23"/>
-      <c r="AK33" s="23"/>
-      <c r="AL33" s="23"/>
-      <c r="AM33" s="24"/>
-    </row>
-    <row r="34" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="27"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23" t="s">
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="15"/>
+    </row>
+    <row r="37" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U37" s="13"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="23"/>
-      <c r="AL34" s="23"/>
-      <c r="AM34" s="24"/>
-    </row>
-    <row r="35" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U35" s="22"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23" t="s">
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="15"/>
+    </row>
+    <row r="38" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U38" s="13"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="24"/>
-    </row>
-    <row r="36" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U36" s="22"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="23"/>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="23"/>
-      <c r="AJ36" s="23"/>
-      <c r="AK36" s="23"/>
-      <c r="AL36" s="23"/>
-      <c r="AM36" s="24"/>
-    </row>
-    <row r="37" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U37" s="22"/>
-      <c r="V37" s="23" t="s">
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="15"/>
+    </row>
+    <row r="39" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U39" s="13"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="14"/>
+      <c r="AK39" s="14"/>
+      <c r="AL39" s="14"/>
+      <c r="AM39" s="15"/>
+    </row>
+    <row r="40" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U40" s="13"/>
+      <c r="V40" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="23"/>
-      <c r="AE37" s="23"/>
-      <c r="AF37" s="23"/>
-      <c r="AG37" s="23"/>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="23"/>
-      <c r="AJ37" s="23"/>
-      <c r="AK37" s="23"/>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="24"/>
-    </row>
-    <row r="38" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U38" s="22"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23" t="s">
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="15"/>
+    </row>
+    <row r="41" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U41" s="13"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="23"/>
-      <c r="AE38" s="23"/>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="23"/>
-      <c r="AH38" s="23"/>
-      <c r="AI38" s="23"/>
-      <c r="AJ38" s="23"/>
-      <c r="AK38" s="23"/>
-      <c r="AL38" s="23"/>
-      <c r="AM38" s="24"/>
-    </row>
-    <row r="39" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U39" s="22"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="23"/>
-      <c r="AC39" s="23"/>
-      <c r="AD39" s="23"/>
-      <c r="AE39" s="23"/>
-      <c r="AF39" s="23"/>
-      <c r="AG39" s="23"/>
-      <c r="AH39" s="23"/>
-      <c r="AI39" s="23"/>
-      <c r="AJ39" s="23"/>
-      <c r="AK39" s="23"/>
-      <c r="AL39" s="23"/>
-      <c r="AM39" s="24"/>
-    </row>
-    <row r="40" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U40" s="22"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="23"/>
-      <c r="AG40" s="23"/>
-      <c r="AH40" s="23"/>
-      <c r="AI40" s="23"/>
-      <c r="AJ40" s="23"/>
-      <c r="AK40" s="23"/>
-      <c r="AL40" s="23"/>
-      <c r="AM40" s="24"/>
-    </row>
-    <row r="41" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U41" s="25"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="27"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="15"/>
+    </row>
+    <row r="42" spans="2:39" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U42" s="16"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2470,9 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -2485,9 +2540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
